--- a/Parqueaderosv3/datos_salida/analisis_estacionamiento/indicadores.xlsx
+++ b/Parqueaderosv3/datos_salida/analisis_estacionamiento/indicadores.xlsx
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>796</v>
+        <v>810</v>
       </c>
     </row>
     <row r="14">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B27" s="5" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28">
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="B41" s="5" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="B47" s="5" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="B48" s="5" t="n">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="49">

--- a/Parqueaderosv3/datos_salida/analisis_estacionamiento/indicadores.xlsx
+++ b/Parqueaderosv3/datos_salida/analisis_estacionamiento/indicadores.xlsx
@@ -1190,7 +1190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14">
@@ -1314,7 +1314,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>GRANADA - TIPICO</t>
+          <t>EL PEÑON - SABADO</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>743</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1358,14 +1358,14 @@
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>3:02</t>
+          <t>0:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>GRANADA - SABADO</t>
+          <t>EL PEÑON - DOMINGO</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="B26" s="5" t="n">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B27" s="5" t="n">
-        <v>441</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>1:47</t>
+          <t>0:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>GRANADA - DOMINGO</t>
+          <t>GRANADA - TIPICO</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34">
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>479</v>
+        <v>766</v>
       </c>
     </row>
     <row r="35">
@@ -1460,14 +1460,14 @@
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>1:48</t>
+          <t>3:01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>SAN ANTONIO - TIPICO</t>
+          <t>GRANADA - SABADO</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="B40" s="5" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="B41" s="5" t="n">
-        <v>463</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42">
@@ -1511,14 +1511,14 @@
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
-          <t>3:07</t>
+          <t>1:47</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>SAN FERNANDO (PARQUE DEL PERRO) - TIPICO</t>
+          <t>GRANADA - DOMINGO</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="B47" s="5" t="n">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="B48" s="5" t="n">
-        <v>896</v>
+        <v>479</v>
       </c>
     </row>
     <row r="49">
@@ -1562,7 +1562,160 @@
       </c>
       <c r="B49" s="5" t="inlineStr">
         <is>
+          <t>1:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>SAN ANTONIO - TIPICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>INDICADOR</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>VALOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>Ocupación Máxima</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>Demanda total</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>Duración Media (Dm)</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>3:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>SAN FERNANDO (PARQUE DEL PERRO) - TIPICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>INDICADOR</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>VALOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>Ocupación Máxima</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>Demanda total</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>Duración Media (Dm)</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
           <t>2:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>SAN FERNANDO (PARQUE DEL PERRO) - SABADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>INDICADOR</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>VALOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>Ocupación Máxima</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>Demanda total</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>Duración Media (Dm)</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>0:00</t>
         </is>
       </c>
     </row>
